--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -14,6 +14,7 @@
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
+    <sheet name="DenemeSheet" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
@@ -79,6 +80,9 @@
   </si>
   <si>
     <t>Snow2</t>
+  </si>
+  <si>
+    <t>Snowwww</t>
   </si>
 </sst>
 </file>
@@ -404,6 +408,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.65234375" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -424,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -478,4 +485,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
